--- a/data/trans_orig/P1412-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Edad-trans_orig.xlsx
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5546</v>
+        <v>5111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002303184283861626</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01289091734036626</v>
+        <v>0.0118796727117519</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5566</v>
+        <v>4950</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001120449415315228</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006294122837683335</v>
+        <v>0.005597583792887659</v>
       </c>
     </row>
     <row r="5">
@@ -819,7 +819,7 @@
         <v>429239</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>424684</v>
+        <v>425119</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>430230</v>
@@ -828,7 +828,7 @@
         <v>0.9976968157161383</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9871090826596335</v>
+        <v>0.9881203272882465</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -840,7 +840,7 @@
         <v>883385</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>878810</v>
+        <v>879426</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>884376</v>
@@ -849,7 +849,7 @@
         <v>0.9988795505846848</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9937058771623162</v>
+        <v>0.9944024162071123</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5135</v>
+        <v>6870</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001501325578861321</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007473205907126263</v>
+        <v>0.009998685684904017</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5199</v>
+        <v>5173</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0007956997819719921</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.004010557075094261</v>
+        <v>0.003990544024888181</v>
       </c>
     </row>
     <row r="8">
@@ -1007,7 +1007,7 @@
         <v>686055</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>681952</v>
+        <v>680217</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>687087</v>
@@ -1016,7 +1016,7 @@
         <v>0.9984986744211387</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9925267940928737</v>
+        <v>0.9900013143150976</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>1295363</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1291196</v>
+        <v>1291222</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1296395</v>
@@ -1050,7 +1050,7 @@
         <v>0.999204300218028</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9959894429249058</v>
+        <v>0.9960094559751118</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5644</v>
+        <v>6738</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001579206535380271</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007954113414912202</v>
+        <v>0.009495362878752078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5614</v>
+        <v>5634</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0008053288589317556</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004034364262747807</v>
+        <v>0.004049233875882239</v>
       </c>
     </row>
     <row r="11">
@@ -1221,7 +1221,7 @@
         <v>708453</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>703930</v>
+        <v>702836</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>709574</v>
@@ -1230,7 +1230,7 @@
         <v>0.9984207934646198</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9920458865850879</v>
+        <v>0.9905046371212479</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1242,7 +1242,7 @@
         <v>1390316</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1385823</v>
+        <v>1385803</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1391437</v>
@@ -1251,7 +1251,7 @@
         <v>0.9991946711410682</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9959656357372522</v>
+        <v>0.9959507661241178</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7283</v>
+        <v>7242</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003381221439959863</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01184895057602086</v>
+        <v>0.01178359136871761</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7229</v>
+        <v>7644</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001691096117291206</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005882427953675581</v>
+        <v>0.006220095152605237</v>
       </c>
     </row>
     <row r="14">
@@ -1409,7 +1409,7 @@
         <v>612539</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>607334</v>
+        <v>607375</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>614617</v>
@@ -1418,7 +1418,7 @@
         <v>0.9966187785600401</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9881510494239796</v>
+        <v>0.9882164086312828</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>1226802</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1221651</v>
+        <v>1221236</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>1228880</v>
@@ -1452,7 +1452,7 @@
         <v>0.9983089038827088</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9941175720463243</v>
+        <v>0.9937799048473946</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5202</v>
+        <v>5124</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002399381466082289</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01211323091073527</v>
+        <v>0.01193214242588853</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1568,19 +1568,19 @@
         <v>4076</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10236</v>
+        <v>9327</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009102521260335306</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002332502938892209</v>
+        <v>0.002320968505816587</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02285787729686039</v>
+        <v>0.02082785919603205</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1589,19 +1589,19 @@
         <v>5106</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10368</v>
+        <v>11647</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005821139584600877</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002245944341786464</v>
+        <v>0.002254783696604641</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0118190814351681</v>
+        <v>0.01327753516715496</v>
       </c>
     </row>
     <row r="17">
@@ -1618,7 +1618,7 @@
         <v>428399</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>424227</v>
+        <v>424305</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>429429</v>
@@ -1627,7 +1627,7 @@
         <v>0.9976006185339177</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9878867690892648</v>
+        <v>0.9880678575741114</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1639,19 +1639,19 @@
         <v>443724</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>437564</v>
+        <v>438473</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>446756</v>
+        <v>446761</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9908974787396647</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9771421227031395</v>
+        <v>0.979172140803968</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9976674970611078</v>
+        <v>0.9976790314941834</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>794</v>
@@ -1660,19 +1660,19 @@
         <v>872123</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>866861</v>
+        <v>865582</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>875259</v>
+        <v>875251</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9941788604153992</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9881809185648319</v>
+        <v>0.986722464832844</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9977540556582135</v>
+        <v>0.9977452163033954</v>
       </c>
     </row>
     <row r="18">
@@ -1764,19 +1764,19 @@
         <v>8441</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3969</v>
+        <v>3532</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17970</v>
+        <v>16936</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02724671275126643</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01281055778863664</v>
+        <v>0.0114016360928501</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05800900954421095</v>
+        <v>0.05467058389221206</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>2971</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>968</v>
+        <v>977</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8017</v>
+        <v>7938</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.008392911262014375</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002734885724337497</v>
+        <v>0.002759625834402097</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0226475246058664</v>
+        <v>0.02242483777697087</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1806,19 +1806,19 @@
         <v>11412</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5495</v>
+        <v>5994</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22666</v>
+        <v>21067</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01719195308774797</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008277747473588851</v>
+        <v>0.009030525791203127</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03414706266450666</v>
+        <v>0.03173774987946137</v>
       </c>
     </row>
     <row r="20">
@@ -1835,19 +1835,19 @@
         <v>301345</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>291816</v>
+        <v>292850</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>305817</v>
+        <v>306254</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9727532872487336</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9419909904557884</v>
+        <v>0.9453294161077876</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9871894422113633</v>
+        <v>0.9885983639071483</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>341</v>
@@ -1856,19 +1856,19 @@
         <v>351025</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>345979</v>
+        <v>346058</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>353028</v>
+        <v>353019</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9916070887379856</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9773524753941335</v>
+        <v>0.9775751622230291</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9972651142756624</v>
+        <v>0.9972403741655979</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>616</v>
@@ -1877,19 +1877,19 @@
         <v>652370</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>641116</v>
+        <v>642715</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>658287</v>
+        <v>657788</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.982808046912252</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9658529373354934</v>
+        <v>0.9682622501205387</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9917222525264122</v>
+        <v>0.9909694742087969</v>
       </c>
     </row>
     <row r="21">
@@ -1981,19 +1981,19 @@
         <v>10387</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5368</v>
+        <v>5403</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18562</v>
+        <v>17924</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04157396068566541</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0214843128543835</v>
+        <v>0.02162295472144336</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07429120334979251</v>
+        <v>0.0717396216009419</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2002,19 +2002,19 @@
         <v>15620</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8679</v>
+        <v>8776</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24650</v>
+        <v>26177</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04027848437278626</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0223810126750869</v>
+        <v>0.02263083290786233</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06356549584712112</v>
+        <v>0.0675028346364601</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -2023,19 +2023,19 @@
         <v>26007</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17773</v>
+        <v>16362</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38358</v>
+        <v>38128</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04078609411110175</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02787211147401301</v>
+        <v>0.02566051352505383</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06015560348478412</v>
+        <v>0.05979479062974385</v>
       </c>
     </row>
     <row r="23">
@@ -2052,19 +2052,19 @@
         <v>239464</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>231289</v>
+        <v>231927</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>244483</v>
+        <v>244448</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9584260393143346</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9257087966502074</v>
+        <v>0.9282603783990581</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9785156871456164</v>
+        <v>0.9783770452785566</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>335</v>
@@ -2073,19 +2073,19 @@
         <v>372176</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>363146</v>
+        <v>361619</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>379117</v>
+        <v>379020</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9597215156272138</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9364345041528789</v>
+        <v>0.9324971653635399</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9776189873249131</v>
+        <v>0.9773691670921377</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>547</v>
@@ -2094,19 +2094,19 @@
         <v>611640</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>599289</v>
+        <v>599519</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>619874</v>
+        <v>621285</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9592139058888982</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9398443965152157</v>
+        <v>0.9402052093702561</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.972127888525987</v>
+        <v>0.9743394864749462</v>
       </c>
     </row>
     <row r="24">
@@ -2198,19 +2198,19 @@
         <v>22968</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14291</v>
+        <v>14713</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34256</v>
+        <v>35072</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006702505971672376</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004170432431788456</v>
+        <v>0.004293645873095654</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.00999646013862643</v>
+        <v>0.01023464188048124</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -2219,19 +2219,19 @@
         <v>24778</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16484</v>
+        <v>16217</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36368</v>
+        <v>36427</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006974020335402709</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004639602994534573</v>
+        <v>0.004564279721192182</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01023603320841323</v>
+        <v>0.0102525380343186</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>44</v>
@@ -2240,19 +2240,19 @@
         <v>47746</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35777</v>
+        <v>34910</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65283</v>
+        <v>64137</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006840717559422993</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005125836831640547</v>
+        <v>0.005001638946723603</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009353159953865386</v>
+        <v>0.009189034475953262</v>
       </c>
     </row>
     <row r="26">
@@ -2269,19 +2269,19 @@
         <v>3403811</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3392523</v>
+        <v>3391707</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3412488</v>
+        <v>3412066</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9932974940283277</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9900035398613736</v>
+        <v>0.9897653581195188</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9958295675682117</v>
+        <v>0.9957063541269043</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3271</v>
@@ -2290,19 +2290,19 @@
         <v>3528190</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3516600</v>
+        <v>3516541</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3536484</v>
+        <v>3536751</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9930259796645973</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9897639667915867</v>
+        <v>0.9897474619656809</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9953603970054653</v>
+        <v>0.9954357202788078</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6459</v>
@@ -2311,19 +2311,19 @@
         <v>6932001</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6914464</v>
+        <v>6915610</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6943970</v>
+        <v>6944837</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9931592824405771</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9906468400461346</v>
+        <v>0.9908109655240467</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9948741631683594</v>
+        <v>0.9949983610532763</v>
       </c>
     </row>
     <row r="27">
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7128</v>
+        <v>6272</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00516471732032778</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01801041706956337</v>
+        <v>0.01584743606715199</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6187</v>
+        <v>6198</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002507259057959939</v>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007589121885069051</v>
+        <v>0.007602377612167758</v>
       </c>
     </row>
     <row r="5">
@@ -2734,7 +2734,7 @@
         <v>393711</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>388627</v>
+        <v>389483</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -2743,7 +2743,7 @@
         <v>0.9948352826796723</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9819895829304363</v>
+        <v>0.9841525639328486</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2755,7 +2755,7 @@
         <v>813174</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>809031</v>
+        <v>809020</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -2764,7 +2764,7 @@
         <v>0.9974927409420401</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.992410878114931</v>
+        <v>0.9923976223878347</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7674</v>
+        <v>7907</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003815259542224799</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01299664102732334</v>
+        <v>0.01339036785265255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7084</v>
+        <v>7455</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001952182423718819</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.00613838976485405</v>
+        <v>0.006460210695652707</v>
       </c>
     </row>
     <row r="8">
@@ -2922,7 +2922,7 @@
         <v>588243</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>582822</v>
+        <v>582589</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -2931,7 +2931,7 @@
         <v>0.9961847404577752</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9870033589726764</v>
+        <v>0.9866096321473468</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2956,7 +2956,7 @@
         <v>1151787</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1146956</v>
+        <v>1146585</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1154040</v>
@@ -2965,7 +2965,7 @@
         <v>0.9980478175762811</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9938616102351462</v>
+        <v>0.9935397893043473</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4737</v>
+        <v>4686</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001420875605509912</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007162331576820575</v>
+        <v>0.007084554469185622</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4700</v>
+        <v>3874</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0007063206756537336</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.003532719095939919</v>
+        <v>0.00291140999053227</v>
       </c>
     </row>
     <row r="11">
@@ -3136,7 +3136,7 @@
         <v>660446</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>656649</v>
+        <v>656700</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>661386</v>
@@ -3145,7 +3145,7 @@
         <v>0.99857912439449</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9928376684231794</v>
+        <v>0.9929154455308142</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>1329543</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1325783</v>
+        <v>1326609</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1330483</v>
@@ -3166,7 +3166,7 @@
         <v>0.9992936793243463</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9964672809040601</v>
+        <v>0.9970885900094687</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3430,19 +3430,19 @@
         <v>8706</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4269</v>
+        <v>4219</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16931</v>
+        <v>15967</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01821685120230425</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008932279596168114</v>
+        <v>0.008828754919757523</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03542675548750013</v>
+        <v>0.03340894900544175</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -3451,19 +3451,19 @@
         <v>3521</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9314</v>
+        <v>10977</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007087157381353476</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002318165838955495</v>
+        <v>0.002333737576904909</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01874665495949094</v>
+        <v>0.02209377450188443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3472,19 +3472,19 @@
         <v>12227</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6576</v>
+        <v>6697</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21441</v>
+        <v>21647</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01254392909734699</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006745774158447438</v>
+        <v>0.00687027335710706</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02199591030177467</v>
+        <v>0.02220770860598952</v>
       </c>
     </row>
     <row r="17">
@@ -3501,19 +3501,19 @@
         <v>469212</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>460987</v>
+        <v>461951</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>473649</v>
+        <v>473699</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9817831487976958</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9645732445124988</v>
+        <v>0.9665910509945577</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9910677204038318</v>
+        <v>0.9911712450802423</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>430</v>
@@ -3522,19 +3522,19 @@
         <v>493328</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>487535</v>
+        <v>485872</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>495697</v>
+        <v>495689</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9929128426186465</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.981253345040509</v>
+        <v>0.9779062254981132</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9976818341610445</v>
+        <v>0.9976662624230951</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>846</v>
@@ -3543,19 +3543,19 @@
         <v>962540</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>953326</v>
+        <v>953120</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>968191</v>
+        <v>968070</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.987456070902653</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9780040896982254</v>
+        <v>0.9777922913940105</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9932542258415525</v>
+        <v>0.993129726642893</v>
       </c>
     </row>
     <row r="18">
@@ -3647,19 +3647,19 @@
         <v>7844</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3788</v>
+        <v>3075</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15540</v>
+        <v>15673</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02346174231673348</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.011330988346532</v>
+        <v>0.009197021872906419</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04648001047255406</v>
+        <v>0.0468781023528651</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -3668,19 +3668,19 @@
         <v>5193</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2029</v>
+        <v>2017</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11415</v>
+        <v>11715</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01374616932203871</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005372388103518642</v>
+        <v>0.005339763168736272</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03021842583577104</v>
+        <v>0.03101109651699446</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -3689,19 +3689,19 @@
         <v>13037</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7013</v>
+        <v>7282</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21603</v>
+        <v>22034</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01830766910370783</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009848270255031065</v>
+        <v>0.01022606256507783</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03033803073889654</v>
+        <v>0.03094328953950604</v>
       </c>
     </row>
     <row r="20">
@@ -3718,19 +3718,19 @@
         <v>326486</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>318790</v>
+        <v>318657</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>330542</v>
+        <v>331255</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9765382576832665</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9535199895274459</v>
+        <v>0.9531218976471351</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.988669011653468</v>
+        <v>0.9908029781270936</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>349</v>
@@ -3739,19 +3739,19 @@
         <v>372569</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>366347</v>
+        <v>366047</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>375733</v>
+        <v>375745</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9862538306779612</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9697815741642288</v>
+        <v>0.9689889034830055</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9946276118964814</v>
+        <v>0.9946602368312638</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>667</v>
@@ -3760,19 +3760,19 @@
         <v>699055</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>690489</v>
+        <v>690058</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>705079</v>
+        <v>704810</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9816923308962922</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9696619692611032</v>
+        <v>0.969056710460494</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9901517297449689</v>
+        <v>0.9897739374349221</v>
       </c>
     </row>
     <row r="21">
@@ -3864,19 +3864,19 @@
         <v>7351</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3413</v>
+        <v>3297</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13282</v>
+        <v>13164</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02860484256309459</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01328193907949704</v>
+        <v>0.01283024144163775</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05168224959419936</v>
+        <v>0.05122362095716165</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -3885,19 +3885,19 @@
         <v>7485</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2543</v>
+        <v>2530</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16332</v>
+        <v>15038</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01870581286817443</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006354182222515098</v>
+        <v>0.006321803917258344</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04081332580245058</v>
+        <v>0.03757845009596648</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -3906,19 +3906,19 @@
         <v>14837</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8331</v>
+        <v>8343</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24061</v>
+        <v>24063</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02257702192486606</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01267662237960134</v>
+        <v>0.0126959446956469</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03661272880119776</v>
+        <v>0.0366162445583328</v>
       </c>
     </row>
     <row r="23">
@@ -3935,19 +3935,19 @@
         <v>249647</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>243716</v>
+        <v>243834</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>253585</v>
+        <v>253701</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9713951574369054</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9483177504058006</v>
+        <v>0.9487763790428385</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.986718060920503</v>
+        <v>0.9871697585583623</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>295</v>
@@ -3956,19 +3956,19 @@
         <v>392684</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>383837</v>
+        <v>385131</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>397626</v>
+        <v>397639</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9812941871318256</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9591866741975494</v>
+        <v>0.9624215499040335</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9936458177774848</v>
+        <v>0.9936781960827417</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>588</v>
@@ -3977,19 +3977,19 @@
         <v>642330</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>633106</v>
+        <v>633104</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>648836</v>
+        <v>648824</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9774229780751339</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9633872711988022</v>
+        <v>0.9633837554416671</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9873233776203986</v>
+        <v>0.9873040553043532</v>
       </c>
     </row>
     <row r="24">
@@ -4081,19 +4081,19 @@
         <v>26154</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17068</v>
+        <v>16796</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38917</v>
+        <v>38114</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007705277013035545</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00502843061707087</v>
+        <v>0.004948112413642336</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01146527210404807</v>
+        <v>0.01122857982533052</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -4102,19 +4102,19 @@
         <v>19183</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11614</v>
+        <v>10408</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30255</v>
+        <v>30052</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005412045929166565</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003276703467563192</v>
+        <v>0.002936232799719968</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.00853567851896409</v>
+        <v>0.008478363341387284</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -4123,19 +4123,19 @@
         <v>45338</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32622</v>
+        <v>31596</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60587</v>
+        <v>59960</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0065338430882265</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004701321920392155</v>
+        <v>0.004553402413509961</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008731547006761977</v>
+        <v>0.008641182615515011</v>
       </c>
     </row>
     <row r="26">
@@ -4152,19 +4152,19 @@
         <v>3368196</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3355433</v>
+        <v>3356236</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3377282</v>
+        <v>3377554</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9922947229869644</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9885347278959521</v>
+        <v>0.98877142017467</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9949715693829292</v>
+        <v>0.9950518875863578</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3321</v>
@@ -4173,19 +4173,19 @@
         <v>3525359</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3514287</v>
+        <v>3514490</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3532928</v>
+        <v>3534134</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9945879540708334</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9914643214810359</v>
+        <v>0.9915216366586129</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9967232965324369</v>
+        <v>0.9970637672002801</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6526</v>
@@ -4194,19 +4194,19 @@
         <v>6893554</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6878305</v>
+        <v>6878932</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6906270</v>
+        <v>6907296</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9934661569117735</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.991268452993238</v>
+        <v>0.9913588173844849</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9952986780796078</v>
+        <v>0.99544659758649</v>
       </c>
     </row>
     <row r="27">
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5718</v>
+        <v>6787</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00184621176152696</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009250413617995064</v>
+        <v>0.01098090259835714</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3943</v>
+        <v>3922</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001268245503340812</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.00635111056417944</v>
+        <v>0.006318504571347957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6769</v>
+        <v>7165</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001556599999128775</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005463703843436807</v>
+        <v>0.005783424802232613</v>
       </c>
     </row>
     <row r="11">
@@ -4950,16 +4950,16 @@
         <v>616942</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>612365</v>
+        <v>611296</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>618083</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9981537882384731</v>
+        <v>0.998153788238473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9907495863820049</v>
+        <v>0.989019097401643</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -4971,7 +4971,7 @@
         <v>619991</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>616835</v>
+        <v>616856</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>620778</v>
@@ -4980,7 +4980,7 @@
         <v>0.9987317544966592</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9936488894358206</v>
+        <v>0.9936814954286519</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -4992,7 +4992,7 @@
         <v>1236932</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1232091</v>
+        <v>1231695</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1238860</v>
@@ -5001,7 +5001,7 @@
         <v>0.9984434000008711</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9945362961565635</v>
+        <v>0.9942165751977682</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -5096,19 +5096,19 @@
         <v>5772</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1980</v>
+        <v>1950</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15032</v>
+        <v>12914</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.008238895055683431</v>
+        <v>0.00823889505568343</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002825534780495925</v>
+        <v>0.002782753637290349</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02145495603761296</v>
+        <v>0.01843192313554233</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -5117,19 +5117,19 @@
         <v>1996</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5396</v>
+        <v>5386</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00271601302287604</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0008337377479249523</v>
+        <v>0.0008370168437835542</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007341342174272786</v>
+        <v>0.007326699970126932</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -5138,19 +5138,19 @@
         <v>7769</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3300</v>
+        <v>3510</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16131</v>
+        <v>17419</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.005411197522178299</v>
+        <v>0.0054111975221783</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002298357870698747</v>
+        <v>0.002444798557312866</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01123609200758824</v>
+        <v>0.01213267434487751</v>
       </c>
     </row>
     <row r="14">
@@ -5167,19 +5167,19 @@
         <v>694845</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>685585</v>
+        <v>687703</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>698637</v>
+        <v>698667</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9917611049443166</v>
+        <v>0.9917611049443165</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9785450439623871</v>
+        <v>0.9815680768644577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9971744652195041</v>
+        <v>0.9972172463627096</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1135</v>
@@ -5188,19 +5188,19 @@
         <v>733068</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>729668</v>
+        <v>729678</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>734451</v>
+        <v>734449</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9972839869771241</v>
+        <v>0.9972839869771238</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9926586578257274</v>
+        <v>0.9926733000298732</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9991662622520752</v>
+        <v>0.9991629831562163</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1795</v>
@@ -5209,19 +5209,19 @@
         <v>1427913</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1419551</v>
+        <v>1418263</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1432382</v>
+        <v>1432172</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9945888024778216</v>
+        <v>0.9945888024778219</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.988763907992412</v>
+        <v>0.9878673256551224</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9977016421293012</v>
+        <v>0.9975552014426871</v>
       </c>
     </row>
     <row r="15">
@@ -5313,19 +5313,19 @@
         <v>4491</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1729</v>
+        <v>1755</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10709</v>
+        <v>11121</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.007381981069614663</v>
+        <v>0.00738198106961466</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002841803901908532</v>
+        <v>0.002884407249498668</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01760286396226063</v>
+        <v>0.01828056040585474</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -5334,19 +5334,19 @@
         <v>6130</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2791</v>
+        <v>2797</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11103</v>
+        <v>10762</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01010274419898178</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004599901959500926</v>
+        <v>0.004609232032212561</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01829894018542488</v>
+        <v>0.01773659102289571</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -5355,19 +5355,19 @@
         <v>10621</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6088</v>
+        <v>6261</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17656</v>
+        <v>17422</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.008740578173520849</v>
+        <v>0.008740578173520851</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005010059331991864</v>
+        <v>0.005152898665872227</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01452992338754504</v>
+        <v>0.01433795185234346</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>603868</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>597650</v>
+        <v>597238</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>606630</v>
+        <v>606604</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9926180189303856</v>
+        <v>0.9926180189303854</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.982397136037739</v>
+        <v>0.981719439594145</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9971581960980915</v>
+        <v>0.9971155927505013</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>990</v>
@@ -5405,19 +5405,19 @@
         <v>600635</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>595662</v>
+        <v>596003</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>603974</v>
+        <v>603968</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9898972558010183</v>
+        <v>0.9898972558010182</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9817010598145751</v>
+        <v>0.9822634089771042</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9954000980404989</v>
+        <v>0.9953907679677872</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1647</v>
@@ -5426,19 +5426,19 @@
         <v>1204503</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1197468</v>
+        <v>1197702</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1209036</v>
+        <v>1208863</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9912594218264791</v>
+        <v>0.9912594218264793</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9854700766124547</v>
+        <v>0.9856620481476567</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9949899406680083</v>
+        <v>0.9948471013341279</v>
       </c>
     </row>
     <row r="18">
@@ -5530,19 +5530,19 @@
         <v>9485</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5219</v>
+        <v>5233</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15924</v>
+        <v>15132</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02334882958585134</v>
+        <v>0.02334882958585133</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01284814798154585</v>
+        <v>0.01288365941645722</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03920102174801125</v>
+        <v>0.03725228379205034</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -5551,19 +5551,19 @@
         <v>4990</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2369</v>
+        <v>2467</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9328</v>
+        <v>9322</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01136331165899335</v>
+        <v>0.01136331165899334</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005395411864780627</v>
+        <v>0.005618028211413589</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02123926880351888</v>
+        <v>0.02122722128945953</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -5572,19 +5572,19 @@
         <v>14475</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9140</v>
+        <v>9307</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21658</v>
+        <v>22262</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0171224592767879</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01081187505034485</v>
+        <v>0.01100903216134432</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02561974496925204</v>
+        <v>0.02633358234612875</v>
       </c>
     </row>
     <row r="20">
@@ -5601,19 +5601,19 @@
         <v>396726</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>390287</v>
+        <v>391079</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>400992</v>
+        <v>400978</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9766511704141487</v>
+        <v>0.9766511704141486</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9607989782519887</v>
+        <v>0.96274771620795</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9871518520184541</v>
+        <v>0.9871163405835429</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>818</v>
@@ -5622,19 +5622,19 @@
         <v>434176</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>429838</v>
+        <v>429844</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>436797</v>
+        <v>436699</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9886366883410068</v>
+        <v>0.9886366883410065</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.978760731196481</v>
+        <v>0.9787727787105406</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9946045881352193</v>
+        <v>0.9943819717885864</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1373</v>
@@ -5643,19 +5643,19 @@
         <v>830903</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>823720</v>
+        <v>823116</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>836238</v>
+        <v>836071</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.982877540723212</v>
+        <v>0.9828775407232121</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.974380255030748</v>
+        <v>0.9736664176538712</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.989188124949655</v>
+        <v>0.9889909678386556</v>
       </c>
     </row>
     <row r="21">
@@ -5747,19 +5747,19 @@
         <v>11782</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7420</v>
+        <v>7129</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19394</v>
+        <v>18957</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03798236634406781</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02392080781546011</v>
+        <v>0.02298306523450539</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06252266798683813</v>
+        <v>0.06111115999764501</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -5768,19 +5768,19 @@
         <v>7067</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3887</v>
+        <v>4117</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11852</v>
+        <v>11455</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01522484803262923</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008374214861134602</v>
+        <v>0.008868334218675545</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02553071665511266</v>
+        <v>0.02467595896387077</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -5789,19 +5789,19 @@
         <v>18850</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12819</v>
+        <v>12387</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26551</v>
+        <v>25742</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02434065947090404</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01655346597252684</v>
+        <v>0.01599515400354796</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03428580210985686</v>
+        <v>0.03324053022898828</v>
       </c>
     </row>
     <row r="23">
@@ -5818,19 +5818,19 @@
         <v>298416</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>290804</v>
+        <v>291241</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>302778</v>
+        <v>303069</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9620176336559321</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9374773320131616</v>
+        <v>0.9388888400023546</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9760791921845398</v>
+        <v>0.9770169347654947</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>865</v>
@@ -5839,19 +5839,19 @@
         <v>457141</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>452356</v>
+        <v>452753</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>460321</v>
+        <v>460091</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9847751519673706</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9744692833448875</v>
+        <v>0.9753240410361295</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9916257851388653</v>
+        <v>0.9911316657813245</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1305</v>
@@ -5860,19 +5860,19 @@
         <v>755557</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>747856</v>
+        <v>748665</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>761588</v>
+        <v>762020</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9756593405290959</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9657141978901432</v>
+        <v>0.9667594697710118</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9834465340274732</v>
+        <v>0.9840048459964518</v>
       </c>
     </row>
     <row r="24">
@@ -5964,19 +5964,19 @@
         <v>32671</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23749</v>
+        <v>24175</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45942</v>
+        <v>45495</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009260072658825752</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006731233987816244</v>
+        <v>0.006851925036920759</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01302156050044997</v>
+        <v>0.0128947921508043</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -5985,19 +5985,19 @@
         <v>20972</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14374</v>
+        <v>15081</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29218</v>
+        <v>28346</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005623055588300566</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003854078814197794</v>
+        <v>0.004043609608884344</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.007834197100607449</v>
+        <v>0.00760035676228193</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>80</v>
@@ -6006,19 +6006,19 @@
         <v>53643</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44126</v>
+        <v>42796</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>69328</v>
+        <v>68993</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.007391094912388612</v>
+        <v>0.007391094912388611</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006079877791644498</v>
+        <v>0.00589654893317487</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009552261817480871</v>
+        <v>0.009506170074070844</v>
       </c>
     </row>
     <row r="26">
@@ -6035,19 +6035,19 @@
         <v>3495481</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3482210</v>
+        <v>3482657</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3504403</v>
+        <v>3503977</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9907399273411743</v>
+        <v>0.9907399273411744</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.98697843949955</v>
+        <v>0.9871052078491958</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9932687660121838</v>
+        <v>0.9931480749630793</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5318</v>
@@ -6056,19 +6056,19 @@
         <v>3708605</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3700359</v>
+        <v>3701231</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3715203</v>
+        <v>3714496</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9943769444116994</v>
+        <v>0.9943769444116995</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.992165802899392</v>
+        <v>0.9923996432377179</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9961459211858021</v>
+        <v>0.9959563903911155</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8647</v>
@@ -6077,19 +6077,19 @@
         <v>7204086</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7188401</v>
+        <v>7188736</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7213603</v>
+        <v>7214933</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9926089050876113</v>
+        <v>0.9926089050876112</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9904477381825194</v>
+        <v>0.9904938299259297</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9939201222083559</v>
+        <v>0.9941034510668254</v>
       </c>
     </row>
     <row r="27">
